--- a/FashionHub/src/main/java/Resources/TestData/TestData.xlsx
+++ b/FashionHub/src/main/java/Resources/TestData/TestData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,22 +16,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Company1</t>
+  </si>
+  <si>
+    <t>Company2</t>
+  </si>
+  <si>
+    <t>Company3</t>
+  </si>
+  <si>
+    <t>Search Product</t>
+  </si>
+  <si>
+    <r>
+      <t>Classic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> White T-Shirt</t>
+    </r>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>User shops</t>
+  </si>
+  <si>
+    <t>Filter Products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,24 +402,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
